--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1607947.281224948</v>
+        <v>1605261.872991506</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673461</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,52 +671,52 @@
         <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
+        <v>32.55518202532696</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.2897156032233</v>
-      </c>
-      <c r="U2" t="n">
-        <v>19.98946990210331</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>143.6625175220047</v>
       </c>
       <c r="V3" t="n">
-        <v>143.9483913128016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +835,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.79222972558995</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>145.0901460432308</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.52071751152202</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41971906875771</v>
+        <v>64.36654623896219</v>
       </c>
       <c r="H5" t="n">
         <v>309.9490894518052</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3232867394216</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4754363151145</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.4773344784389</v>
+        <v>383.477334478438</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>34.45162654853182</v>
       </c>
       <c r="H6" t="n">
-        <v>48.85039967951543</v>
+        <v>97.33765040199577</v>
       </c>
       <c r="I6" t="n">
-        <v>36.28687735603336</v>
+        <v>36.2868773560334</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.384369338296153</v>
+        <v>4.384369338296224</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0309654321255</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.9471662361903</v>
@@ -1032,7 +1032,7 @@
         <v>225.839898471748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.09043054474081</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.928326488848086</v>
+        <v>1.928326488848157</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1453906001063</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>206.2924842707676</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>53.43995086960426</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>109.2655041992272</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.1305810815921</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>5.115799983896106</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220.1713113047428</v>
+        <v>360.4770476371634</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.3498598144162</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632822</v>
+        <v>288.7511433632806</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292354</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.949422691779</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.6934939670195</v>
+        <v>134.6934939670194</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749273</v>
+        <v>86.64179915749193</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489863</v>
+        <v>8.282546271487007</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254633</v>
+        <v>122.4601525254618</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487706</v>
+        <v>189.4832755487702</v>
       </c>
       <c r="U12" t="n">
         <v>225.7670384496465</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.5642761218785</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692889308208</v>
+        <v>165.7692889308207</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4743248871677</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628225</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>185.2985930389535</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.4529121465555</v>
       </c>
       <c r="U13" t="n">
         <v>286.1978462422561</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>221.2238666329582</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045449</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446353023</v>
+        <v>34.32106446345998</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374744</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561485</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952168</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U15" t="n">
         <v>225.7492064608734</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>23.9451610313793</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.3384883584594</v>
       </c>
       <c r="T16" t="n">
-        <v>115.0648329620434</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>233.271565867184</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.32106446352878</v>
+        <v>84.61259060082087</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374744</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1935,10 +1935,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561484</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952168</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U18" t="n">
         <v>225.7492064608734</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.0377029023274</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>38.03682829121105</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2087,19 +2087,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349022</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045449</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060082087</v>
       </c>
       <c r="T20" t="n">
-        <v>148.9055307001821</v>
+        <v>199.1970568374744</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2172,10 +2172,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4224477376698</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561484</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952168</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3907690366108</v>
       </c>
       <c r="U21" t="n">
         <v>225.7492064608734</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>64.44601915223741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>81.37259901116775</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108466</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584594</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627619</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797025</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577708</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>41.74133133758772</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8913819999784</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>144.8592102470455</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408064</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703272</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>9.795251606876494</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8913819999784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>176.1811323375792</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.230080101654</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="C2" t="n">
-        <v>820.230080101654</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344762</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344762</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4328,52 +4328,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411523</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>820.230080101654</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V2" t="n">
-        <v>820.230080101654</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="W2" t="n">
-        <v>820.230080101654</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X2" t="n">
-        <v>820.230080101654</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.230080101654</v>
+        <v>320.3587892151035</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.869123378691</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="C3" t="n">
-        <v>326.869123378691</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957456</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166541</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166541</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166541</v>
+        <v>909.7418659433936</v>
       </c>
       <c r="V3" t="n">
-        <v>742.4809223491777</v>
+        <v>674.5897577116509</v>
       </c>
       <c r="W3" t="n">
-        <v>742.4809223491777</v>
+        <v>674.5897577116509</v>
       </c>
       <c r="X3" t="n">
-        <v>534.6294221436449</v>
+        <v>466.738257506118</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.869123378691</v>
+        <v>258.9779587411641</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>653.6153287261669</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="C4" t="n">
-        <v>653.6153287261669</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="D4" t="n">
-        <v>653.6153287261669</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="E4" t="n">
-        <v>505.7022351437738</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8122876458634</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434486</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006024</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006024</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001375</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001375</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="X4" t="n">
-        <v>653.6153287261669</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="Y4" t="n">
-        <v>653.6153287261669</v>
+        <v>629.0866528456006</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1090.47696216632</v>
+        <v>415.7202892153244</v>
       </c>
       <c r="C5" t="n">
-        <v>721.5144452259087</v>
+        <v>415.7202892153244</v>
       </c>
       <c r="D5" t="n">
-        <v>363.2487466191583</v>
+        <v>415.7202892153244</v>
       </c>
       <c r="E5" t="n">
-        <v>363.2487466191583</v>
+        <v>415.7202892153244</v>
       </c>
       <c r="F5" t="n">
-        <v>356.3032458699548</v>
+        <v>408.7747884661209</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7580750934319</v>
+        <v>343.7580750934318</v>
       </c>
       <c r="H5" t="n">
-        <v>30.67818675827511</v>
+        <v>30.67818675827504</v>
       </c>
       <c r="I5" t="n">
-        <v>30.67818675827511</v>
+        <v>30.67818675827504</v>
       </c>
       <c r="J5" t="n">
-        <v>93.68840227144301</v>
+        <v>93.68840227144244</v>
       </c>
       <c r="K5" t="n">
-        <v>238.8628998583008</v>
+        <v>238.8628998582999</v>
       </c>
       <c r="L5" t="n">
-        <v>455.8664631799394</v>
+        <v>455.8664631799379</v>
       </c>
       <c r="M5" t="n">
-        <v>728.9941769296707</v>
+        <v>728.9941769296688</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.155191012939</v>
+        <v>1011.155191012937</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.256574219959</v>
+        <v>1264.256574219957</v>
       </c>
       <c r="P5" t="n">
-        <v>1445.771748220742</v>
+        <v>1445.771748220738</v>
       </c>
       <c r="Q5" t="n">
-        <v>1533.909337913756</v>
+        <v>1533.909337913752</v>
       </c>
       <c r="R5" t="n">
-        <v>1533.909337913756</v>
+        <v>1533.909337913752</v>
       </c>
       <c r="S5" t="n">
-        <v>1533.909337913756</v>
+        <v>1389.138341207265</v>
       </c>
       <c r="T5" t="n">
-        <v>1533.909337913756</v>
+        <v>1176.536890383917</v>
       </c>
       <c r="U5" t="n">
-        <v>1533.909337913756</v>
+        <v>1176.536890383917</v>
       </c>
       <c r="V5" t="n">
-        <v>1533.909337913756</v>
+        <v>1176.536890383917</v>
       </c>
       <c r="W5" t="n">
-        <v>1533.909337913756</v>
+        <v>1176.536890383917</v>
       </c>
       <c r="X5" t="n">
-        <v>1533.909337913756</v>
+        <v>803.0711321228375</v>
       </c>
       <c r="Y5" t="n">
-        <v>1146.558495006242</v>
+        <v>415.7202892153244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291.1284655702595</v>
+        <v>200.4520799972256</v>
       </c>
       <c r="C6" t="n">
-        <v>116.6754362891325</v>
+        <v>200.4520799972256</v>
       </c>
       <c r="D6" t="n">
-        <v>116.6754362891325</v>
+        <v>200.4520799972256</v>
       </c>
       <c r="E6" t="n">
-        <v>116.6754362891325</v>
+        <v>200.4520799972256</v>
       </c>
       <c r="F6" t="n">
-        <v>116.6754362891325</v>
+        <v>200.4520799972256</v>
       </c>
       <c r="G6" t="n">
-        <v>116.6754362891325</v>
+        <v>165.6524572209308</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33159822901588</v>
+        <v>67.33159822901585</v>
       </c>
       <c r="I6" t="n">
-        <v>30.67818675827511</v>
+        <v>30.67818675827504</v>
       </c>
       <c r="J6" t="n">
-        <v>70.50414779342684</v>
+        <v>49.38879249773444</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6383779085228</v>
+        <v>159.5230226128302</v>
       </c>
       <c r="L6" t="n">
-        <v>375.0499828615917</v>
+        <v>353.9346275658988</v>
       </c>
       <c r="M6" t="n">
-        <v>621.276024211089</v>
+        <v>733.5771886995524</v>
       </c>
       <c r="N6" t="n">
-        <v>888.4275811224023</v>
+        <v>1096.40409598089</v>
       </c>
       <c r="O6" t="n">
-        <v>1110.59926820449</v>
+        <v>1318.575783062978</v>
       </c>
       <c r="P6" t="n">
-        <v>1269.578567846514</v>
+        <v>1477.555082705001</v>
       </c>
       <c r="Q6" t="n">
-        <v>1533.909337913756</v>
+        <v>1533.909337913752</v>
       </c>
       <c r="R6" t="n">
-        <v>1529.480682016487</v>
+        <v>1529.480682016483</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.004959357774</v>
+        <v>1529.480682016483</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.09873083637</v>
+        <v>1333.574453495079</v>
       </c>
       <c r="U6" t="n">
-        <v>960.9776212689479</v>
+        <v>1105.453343927657</v>
       </c>
       <c r="V6" t="n">
-        <v>960.9776212689479</v>
+        <v>870.3012356959139</v>
       </c>
       <c r="W6" t="n">
-        <v>706.7402645407462</v>
+        <v>616.0638789677123</v>
       </c>
       <c r="X6" t="n">
-        <v>498.8887643352134</v>
+        <v>408.2123787621795</v>
       </c>
       <c r="Y6" t="n">
-        <v>291.1284655702595</v>
+        <v>200.4520799972256</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.4818547130112</v>
+        <v>32.62599129246509</v>
       </c>
       <c r="C7" t="n">
-        <v>477.5456717851043</v>
+        <v>32.62599129246509</v>
       </c>
       <c r="D7" t="n">
-        <v>327.4290323727686</v>
+        <v>32.62599129246509</v>
       </c>
       <c r="E7" t="n">
-        <v>179.5159387903755</v>
+        <v>32.62599129246509</v>
       </c>
       <c r="F7" t="n">
-        <v>32.6259912924651</v>
+        <v>32.62599129246509</v>
       </c>
       <c r="G7" t="n">
-        <v>32.6259912924651</v>
+        <v>32.62599129246509</v>
       </c>
       <c r="H7" t="n">
-        <v>32.6259912924651</v>
+        <v>32.62599129246509</v>
       </c>
       <c r="I7" t="n">
-        <v>32.6259912924651</v>
+        <v>32.62599129246509</v>
       </c>
       <c r="J7" t="n">
-        <v>30.67818675827511</v>
+        <v>30.67818675827504</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3778790199919</v>
+        <v>157.3778790199917</v>
       </c>
       <c r="L7" t="n">
-        <v>375.036298540647</v>
+        <v>375.0362985406466</v>
       </c>
       <c r="M7" t="n">
-        <v>614.915707057356</v>
+        <v>614.9157070573556</v>
       </c>
       <c r="N7" t="n">
-        <v>854.5259358182318</v>
+        <v>854.5259358182311</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.82846860375</v>
+        <v>1059.828468603749</v>
       </c>
       <c r="P7" t="n">
         <v>1211.979570281386</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.88602631501</v>
+        <v>1233.886026315009</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.537146920964</v>
+        <v>1233.886026315009</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.537146920964</v>
+        <v>1233.886026315009</v>
       </c>
       <c r="T7" t="n">
-        <v>1113.537146920964</v>
+        <v>1233.886026315009</v>
       </c>
       <c r="U7" t="n">
-        <v>1113.537146920964</v>
+        <v>1025.50977957686</v>
       </c>
       <c r="V7" t="n">
-        <v>1113.537146920964</v>
+        <v>770.8252913709732</v>
       </c>
       <c r="W7" t="n">
-        <v>1113.537146920964</v>
+        <v>481.4081213340125</v>
       </c>
       <c r="X7" t="n">
-        <v>885.5475960229462</v>
+        <v>253.4185704359952</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.7550168794161</v>
+        <v>32.62599129246509</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.365042002428</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2451.97013223932</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>2078.50437397824</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1688.365042002428</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="9">
@@ -4863,31 +4863,31 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
         <v>1218.104987164206</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.054313852967</v>
+        <v>354.4439942939401</v>
       </c>
       <c r="C10" t="n">
-        <v>623.1181309250601</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>473.0014915127243</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1896.128061356321</v>
+        <v>2310.622869249672</v>
       </c>
       <c r="C11" t="n">
-        <v>1527.165544415909</v>
+        <v>1941.660352309261</v>
       </c>
       <c r="D11" t="n">
-        <v>1168.899845809159</v>
+        <v>1583.39465370251</v>
       </c>
       <c r="E11" t="n">
-        <v>783.1115932109146</v>
+        <v>1197.606401104266</v>
       </c>
       <c r="F11" t="n">
-        <v>372.1256884213071</v>
+        <v>786.6204963146586</v>
       </c>
       <c r="G11" t="n">
-        <v>372.1256884213071</v>
+        <v>372.1256884213092</v>
       </c>
       <c r="H11" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223789</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223789</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746716</v>
+        <v>317.3880320746894</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947045</v>
+        <v>723.2234501947419</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653015</v>
+        <v>1263.599934653078</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458668</v>
+        <v>1896.542330458757</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328191</v>
+        <v>2544.340204328307</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990711</v>
+        <v>3142.702105990855</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.88914460886</v>
+        <v>3618.889144609025</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.313032718602</v>
+        <v>3928.313032718785</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111702</v>
+        <v>4022.893342111895</v>
       </c>
       <c r="S11" t="n">
-        <v>4022.893342111702</v>
+        <v>4022.893342111895</v>
       </c>
       <c r="T11" t="n">
-        <v>3819.444223496313</v>
+        <v>4022.893342111895</v>
       </c>
       <c r="U11" t="n">
-        <v>3565.959958151082</v>
+        <v>3769.409076766663</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.897070807511</v>
+        <v>3438.346189423093</v>
       </c>
       <c r="W11" t="n">
-        <v>2882.128415537397</v>
+        <v>3438.346189423093</v>
       </c>
       <c r="X11" t="n">
-        <v>2508.662657276317</v>
+        <v>3064.880431162013</v>
       </c>
       <c r="Y11" t="n">
-        <v>2118.523325300505</v>
+        <v>2674.741099186201</v>
       </c>
     </row>
     <row r="12">
@@ -5103,49 +5103,49 @@
         <v>618.1670913319178</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9296363264623</v>
+        <v>458.9296363264624</v>
       </c>
       <c r="F12" t="n">
         <v>312.3950783533473</v>
       </c>
       <c r="G12" t="n">
-        <v>176.3410440432266</v>
+        <v>176.3410440432267</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727431</v>
+        <v>88.82407519727528</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223789</v>
       </c>
       <c r="J12" t="n">
-        <v>202.7540031635561</v>
+        <v>202.7540031635677</v>
       </c>
       <c r="K12" t="n">
-        <v>489.9324039036199</v>
+        <v>489.9324039036448</v>
       </c>
       <c r="L12" t="n">
-        <v>922.4017448696457</v>
+        <v>922.4017448696884</v>
       </c>
       <c r="M12" t="n">
-        <v>1446.429935688258</v>
+        <v>1446.429935688321</v>
       </c>
       <c r="N12" t="n">
-        <v>1998.736238339038</v>
+        <v>1998.736238339123</v>
       </c>
       <c r="O12" t="n">
-        <v>2481.76880827124</v>
+        <v>2481.768808271344</v>
       </c>
       <c r="P12" t="n">
-        <v>2557.913016602452</v>
+        <v>2557.91301660245</v>
       </c>
       <c r="Q12" t="n">
-        <v>2557.913016602452</v>
+        <v>2557.91301660245</v>
       </c>
       <c r="R12" t="n">
-        <v>2557.913016602452</v>
+        <v>2557.91301660245</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.215892839358</v>
+        <v>2434.215892839357</v>
       </c>
       <c r="T12" t="n">
         <v>2242.818644810297</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.7809684396057</v>
+        <v>247.9015930349861</v>
       </c>
       <c r="C13" t="n">
-        <v>689.8447855116988</v>
+        <v>247.9015930349861</v>
       </c>
       <c r="D13" t="n">
-        <v>539.728146099363</v>
+        <v>247.9015930349861</v>
       </c>
       <c r="E13" t="n">
-        <v>391.8150525169699</v>
+        <v>247.9015930349861</v>
       </c>
       <c r="F13" t="n">
-        <v>391.8150525169699</v>
+        <v>247.9015930349861</v>
       </c>
       <c r="G13" t="n">
-        <v>224.3713263242216</v>
+        <v>80.45786684223789</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223789</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223404</v>
+        <v>80.45786684223789</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283904</v>
+        <v>143.535056628399</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076822</v>
+        <v>377.0270927076989</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977132</v>
+        <v>731.3429449977401</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583784</v>
+        <v>1115.308455583822</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955086</v>
+        <v>1495.578740955134</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510217</v>
+        <v>1830.803602510276</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226118</v>
+        <v>2094.125701226185</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167698</v>
+        <v>2193.001193167771</v>
       </c>
       <c r="R13" t="n">
-        <v>2193.001193167698</v>
+        <v>2114.821283191728</v>
       </c>
       <c r="S13" t="n">
-        <v>2005.830897168754</v>
+        <v>1927.650987192785</v>
       </c>
       <c r="T13" t="n">
-        <v>2005.830897168754</v>
+        <v>1706.991479974042</v>
       </c>
       <c r="U13" t="n">
-        <v>1716.742163590718</v>
+        <v>1417.902746396006</v>
       </c>
       <c r="V13" t="n">
-        <v>1716.742163590718</v>
+        <v>1163.218258190119</v>
       </c>
       <c r="W13" t="n">
-        <v>1427.324993553757</v>
+        <v>873.8010881531579</v>
       </c>
       <c r="X13" t="n">
-        <v>1199.33544265574</v>
+        <v>650.3426370087559</v>
       </c>
       <c r="Y13" t="n">
-        <v>978.5428635122095</v>
+        <v>429.5500578652258</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905845</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.261951965434</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1589.996253358684</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.20800076044</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708318</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872378</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608134</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251875</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128633</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018628</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957656</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874752</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333881</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021222</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127223</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161303959</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4605.913419421676</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4404.704271100994</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.260941820544</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3820.198054476973</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.429399206859</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945779</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969967</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>942.6241165038811</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>768.1710872227541</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>619.2366775615028</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560474</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829323</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>177.6844143428619</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779224</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412764</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385021</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1653.719034637141</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>2275.81499803647</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5385,22 +5385,22 @@
         <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2243.87021893001</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454381</v>
+        <v>2015.84071745438</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1780.688609222637</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1526.451252494436</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1318.599752288903</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.83945352395</v>
+        <v>1110.839453523949</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.5402036081957</v>
+        <v>561.9183350635458</v>
       </c>
       <c r="C16" t="n">
-        <v>679.6040206802888</v>
+        <v>537.7313037187184</v>
       </c>
       <c r="D16" t="n">
-        <v>529.4873812679532</v>
+        <v>387.6146643063827</v>
       </c>
       <c r="E16" t="n">
-        <v>381.5742876855602</v>
+        <v>239.7015707239895</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876499</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876499</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156313</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861921</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693227</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213778</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005481</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020508</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856709</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410142</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410142</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2245.205584149072</v>
       </c>
       <c r="T16" t="n">
-        <v>2312.148670408103</v>
+        <v>2025.526801863454</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.072456722831</v>
+        <v>1736.450588178181</v>
       </c>
       <c r="V16" t="n">
-        <v>1768.387968516944</v>
+        <v>1481.766099972294</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.970798479983</v>
+        <v>1192.348929935333</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.981247581966</v>
+        <v>964.3593790373156</v>
       </c>
       <c r="Y16" t="n">
-        <v>1030.188668438435</v>
+        <v>743.5667998937855</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947554976</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614564</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007814</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940957</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746199625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675363682</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608131</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322607916</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251875</v>
       </c>
       <c r="K17" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128626</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018629</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957657</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874753</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333882</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021223</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127224</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161303959</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070806</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750125</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469675</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126104</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877855989</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959491</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619098</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>942.6241165038811</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.1710872227541</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>619.2366775615028</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560474</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829323</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>177.6844143428618</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779224</v>
       </c>
       <c r="K18" t="n">
-        <v>301.0525042748308</v>
+        <v>570.9683475412766</v>
       </c>
       <c r="L18" t="n">
-        <v>791.784837118582</v>
+        <v>1061.700680385022</v>
       </c>
       <c r="M18" t="n">
-        <v>1383.80319137071</v>
+        <v>1653.719034637142</v>
       </c>
       <c r="N18" t="n">
-        <v>2005.899154770046</v>
+        <v>2275.814998036471</v>
       </c>
       <c r="O18" t="n">
         <v>2552.77562977024</v>
@@ -5622,22 +5622,22 @@
         <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2243.87021893001</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2015.84071745438</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1780.688609222637</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1526.451252494436</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1318.599752288903</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1110.839453523949</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>575.851948477319</v>
+        <v>745.0885253246158</v>
       </c>
       <c r="C19" t="n">
-        <v>406.9157655494121</v>
+        <v>576.1523423967089</v>
       </c>
       <c r="D19" t="n">
-        <v>406.9157655494121</v>
+        <v>426.0357029843733</v>
       </c>
       <c r="E19" t="n">
-        <v>406.9157655494121</v>
+        <v>278.1226094019803</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0258180515017</v>
+        <v>131.23266190407</v>
       </c>
       <c r="G19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322607918</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156314</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861922</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693228</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213778</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005482</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020508</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856709</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410142</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410142</v>
       </c>
       <c r="S19" t="n">
-        <v>2245.205584149098</v>
+        <v>2428.375774410142</v>
       </c>
       <c r="T19" t="n">
-        <v>2025.52680186348</v>
+        <v>2208.696992124524</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.450588178207</v>
+        <v>1919.620778439251</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.76609997232</v>
+        <v>1664.936290233364</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.348929935359</v>
+        <v>1375.519120196403</v>
       </c>
       <c r="X19" t="n">
-        <v>964.3593790373416</v>
+        <v>1147.529569298386</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.5667998938114</v>
+        <v>926.7369901548556</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947554975</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614564</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007813</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708293</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872357</v>
       </c>
       <c r="H20" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322607916</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322607724</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251934</v>
+        <v>372.3074987251857</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128606</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018627</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957656</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874752</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333881</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021221</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127223</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161303958</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070805</v>
       </c>
       <c r="T20" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750123</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469674</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126103</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877855989</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594909</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619097</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>942.6241165038811</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.1710872227541</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>619.2366775615028</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>459.9992225560474</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829323</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>177.6844143428618</v>
       </c>
       <c r="H21" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322607916</v>
       </c>
       <c r="I21" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322607916</v>
       </c>
       <c r="J21" t="n">
-        <v>92.8116232260805</v>
+        <v>240.4596049779224</v>
       </c>
       <c r="K21" t="n">
-        <v>92.8116232260805</v>
+        <v>570.9683475412764</v>
       </c>
       <c r="L21" t="n">
-        <v>372.2013186925061</v>
+        <v>1061.700680385022</v>
       </c>
       <c r="M21" t="n">
-        <v>964.2196729446337</v>
+        <v>1653.719034637142</v>
       </c>
       <c r="N21" t="n">
-        <v>1586.31563634397</v>
+        <v>2275.814998036471</v>
       </c>
       <c r="O21" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
         <v>2552.77562977024</v>
@@ -5859,22 +5859,22 @@
         <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2243.87021893001</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2015.84071745438</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1780.688609222637</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1526.451252494436</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1318.599752288903</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1110.839453523949</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>494.0589900220726</v>
+        <v>494.0589900220469</v>
       </c>
       <c r="C22" t="n">
-        <v>325.1228070941656</v>
+        <v>325.1228070941399</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0258180515016</v>
+        <v>175.0061676818041</v>
       </c>
       <c r="E22" t="n">
-        <v>260.0258180515016</v>
+        <v>175.0061676818041</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0258180515016</v>
+        <v>92.81162322607916</v>
       </c>
       <c r="G22" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322607916</v>
       </c>
       <c r="H22" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322607916</v>
       </c>
       <c r="I22" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322607916</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156313</v>
       </c>
       <c r="K22" t="n">
-        <v>431.422473086198</v>
+        <v>431.4224730861922</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693228</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213778</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005481</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020508</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856709</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410143</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368643</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.346239107599</v>
+        <v>2177.346239107573</v>
       </c>
       <c r="T22" t="n">
-        <v>1957.667456821981</v>
+        <v>1957.667456821955</v>
       </c>
       <c r="U22" t="n">
-        <v>1668.591243136707</v>
+        <v>1668.591243136681</v>
       </c>
       <c r="V22" t="n">
-        <v>1413.90675493082</v>
+        <v>1413.906754930794</v>
       </c>
       <c r="W22" t="n">
-        <v>1124.48958489386</v>
+        <v>1124.489584893834</v>
       </c>
       <c r="X22" t="n">
-        <v>896.5000339958424</v>
+        <v>896.5000339958167</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.7074548523123</v>
+        <v>675.7074548522866</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188007</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490404</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188002</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908933</v>
+        <v>580.899304487669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908933</v>
+        <v>430.7826650753334</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908933</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908934</v>
+        <v>135.9796239950302</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>135.9796239950302</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166296</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327548</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290587</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925701</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490399</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>803.8641191832227</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400708</v>
+        <v>634.9279362553158</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400708</v>
+        <v>484.81129684298</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400708</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F31" t="n">
-        <v>366.9636532421605</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G31" t="n">
-        <v>199.7675539570409</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>803.8641191832227</v>
       </c>
     </row>
     <row r="32">
@@ -6704,19 +6704,19 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400708</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121639</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121639</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121639</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7123,7 +7123,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
         <v>1688.385853854706</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>734.6461798836016</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>565.7099969556947</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>565.7099969556948</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>417.7969033733016</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121639</v>
+        <v>270.9069558753914</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>103.7108565902713</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797186</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,13 +7348,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>916.2946447138413</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400714</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400714</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400714</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7570,19 +7570,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703112</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,13 +7634,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
@@ -7652,22 +7652,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127275</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.48513033188121</v>
+        <v>34.48513033188135</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.32864171282041</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.764161398138</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>96.64176805052989</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.5625303587378</v>
+        <v>22.25679402631721</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498598144164</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344965</v>
+        <v>19.53007201344366</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.1563689811188</v>
+        <v>96.15636898111526</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.4146274292347</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.26770406005875</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871671</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247365</v>
+        <v>88.63818461247156</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628539</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465557</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>4.485788756078932</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728939</v>
+        <v>50.29152613736091</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>143.3016600672485</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>165.542052877167</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440977</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108467</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>102.4171615007184</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.29152613736093</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.29152613729085</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.79427727960987</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>127.5052245859559</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440976</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108466</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.3384883584594</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>50.2915261373596</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>50.29152613729206</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>84.16945386597494</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>64.04844901176349</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.542052877167</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>140.4539897919541</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440976</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.22910392194214</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>10.85445046951742</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>98.55338150863616</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194176</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.40333084624551</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>107.2784330767825</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.4994612393474</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E43" t="n">
-        <v>41.54258064659074</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>4.84515366406536</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>920837.1734388972</v>
+        <v>920837.1734388971</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>831567.6926435754</v>
+        <v>831567.6926435948</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893926.7401720561</v>
+        <v>893926.7401720489</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893926.7401720557</v>
+        <v>893926.7401720488</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893926.7401720557</v>
+        <v>893926.7401720491</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898840.2510292283</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898840.2510292284</v>
+        <v>898840.2510292286</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898840.2510292286</v>
+        <v>898840.2510292284</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797091</v>
+        <v>484893.3234797205</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.8515647201</v>
+        <v>521741.8515647163</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647199</v>
+        <v>521741.8515647164</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647164</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
@@ -26344,16 +26344,16 @@
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="O2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132571.3256199688</v>
+        <v>132571.3256199678</v>
       </c>
       <c r="D3" t="n">
-        <v>265633.5342698657</v>
+        <v>265633.5342698666</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.0423979649</v>
+        <v>348407.0423980103</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046387</v>
+        <v>143852.0300045784</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744871</v>
+        <v>10818.91345746328</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30823.28075181925</v>
+        <v>30823.28075181899</v>
       </c>
       <c r="L3" t="n">
-        <v>65071.59368054835</v>
+        <v>65071.59368054856</v>
       </c>
       <c r="M3" t="n">
-        <v>90993.97560824308</v>
+        <v>90993.97560825509</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282962</v>
+        <v>37822.10612281362</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216540.3069618272</v>
+        <v>216540.3069618275</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
       </c>
       <c r="E4" t="n">
-        <v>11690.45046418077</v>
+        <v>11690.45046418079</v>
       </c>
       <c r="F4" t="n">
-        <v>11770.44359558047</v>
+        <v>11770.44359558046</v>
       </c>
       <c r="G4" t="n">
-        <v>11770.44359558047</v>
+        <v>11770.44359558046</v>
       </c>
       <c r="H4" t="n">
-        <v>11770.44359558047</v>
+        <v>11770.44359558046</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26470,22 +26470,22 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72576.91021638183</v>
+        <v>72576.91021638176</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166999</v>
+        <v>88006.19635167376</v>
       </c>
       <c r="F5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138371</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138371</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>100142.1285138371</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-461580.6986468522</v>
+        <v>-461580.6986468527</v>
       </c>
       <c r="C6" t="n">
-        <v>111988.6076136062</v>
+        <v>111988.6076136072</v>
       </c>
       <c r="D6" t="n">
-        <v>33563.02314949359</v>
+        <v>33563.02314949271</v>
       </c>
       <c r="E6" t="n">
-        <v>36789.63426589342</v>
+        <v>36602.00416227084</v>
       </c>
       <c r="F6" t="n">
-        <v>265977.2494506625</v>
+        <v>265931.3444551547</v>
       </c>
       <c r="G6" t="n">
-        <v>409829.2794553014</v>
+        <v>409783.374459733</v>
       </c>
       <c r="H6" t="n">
-        <v>409829.2794553011</v>
+        <v>409783.3744597333</v>
       </c>
       <c r="I6" t="n">
-        <v>400926.8703003422</v>
+        <v>400892.1323748921</v>
       </c>
       <c r="J6" t="n">
-        <v>342746.629338677</v>
+        <v>342711.8914132413</v>
       </c>
       <c r="K6" t="n">
-        <v>380922.5030059718</v>
+        <v>380887.7650805364</v>
       </c>
       <c r="L6" t="n">
-        <v>346674.1900772427</v>
+        <v>346639.4521518068</v>
       </c>
       <c r="M6" t="n">
-        <v>320751.8081495481</v>
+        <v>320717.0702241003</v>
       </c>
       <c r="N6" t="n">
-        <v>373923.6776349614</v>
+        <v>373888.9397095417</v>
       </c>
       <c r="O6" t="n">
-        <v>411745.783757791</v>
+        <v>411711.0458323552</v>
       </c>
       <c r="P6" t="n">
-        <v>411745.7837577909</v>
+        <v>411711.0458323553</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.1508385363645</v>
+        <v>717.1508385363639</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053767</v>
+        <v>1232.028328053806</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716372</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716372</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716372</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.4773344784389</v>
+        <v>383.477334478438</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527926</v>
+        <v>1005.723335527974</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.14529032599</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.14529032599</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290325989</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.0958247668865</v>
+        <v>103.0958247668857</v>
       </c>
       <c r="D3" t="n">
-        <v>216.9140535811747</v>
+        <v>216.9140535811754</v>
       </c>
       <c r="E3" t="n">
-        <v>297.9634359362279</v>
+        <v>297.9634359362665</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626187</v>
+        <v>126.0127206625662</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625301563</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,40 +27012,40 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.7634544769328</v>
+        <v>119.7634544769318</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1074976215999</v>
+        <v>257.1074976216008</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1385034278867</v>
+        <v>365.1385034279349</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980814</v>
+        <v>154.421954798016</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777365894</v>
       </c>
       <c r="J4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769328</v>
+        <v>119.7634544769318</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976215999</v>
+        <v>257.1074976216008</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278867</v>
+        <v>365.1385034279349</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980812</v>
+        <v>154.4219547980158</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769328</v>
+        <v>119.7634544769318</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976215999</v>
+        <v>257.1074976216008</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278867</v>
+        <v>365.1385034279349</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980814</v>
+        <v>154.421954798016</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>380.278992620383</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>231.1586979761792</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>82.19196998154996</v>
       </c>
       <c r="V3" t="n">
-        <v>88.85219583662362</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>215.4664007770875</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>80.61950934580631</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>327.2131241519585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>348.0531728297955</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.3283209164433</v>
+        <v>99.32832091644339</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3232867394216</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4754363151145</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1150114321263</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.760604177614653</v>
+        <v>2.760604177615619</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,10 +27707,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8009663029626</v>
+        <v>101.3493397544308</v>
       </c>
       <c r="H6" t="n">
-        <v>48.48725072248033</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0309654321256</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.7415496371965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6977565348686</v>
@@ -27792,7 +27792,7 @@
         <v>150.7292459486106</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5597376505649</v>
+        <v>116.559737650565</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1453906001063</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4792511931327</v>
+        <v>201.4792511931328</v>
       </c>
       <c r="T7" t="n">
         <v>222.4200010002144</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484899297496</v>
+        <v>79.95600565898201</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>328.4904192026575</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>239.9754645181858</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.70139910034518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>162.1310211147317</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883018446377343</v>
+        <v>2.88301844637734</v>
       </c>
       <c r="H5" t="n">
-        <v>29.52571266396197</v>
+        <v>29.52571266396194</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1475686539626</v>
+        <v>111.1475686539625</v>
       </c>
       <c r="J5" t="n">
-        <v>244.6925868632192</v>
+        <v>244.692586863219</v>
       </c>
       <c r="K5" t="n">
-        <v>366.7307576983722</v>
+        <v>366.7307576983719</v>
       </c>
       <c r="L5" t="n">
-        <v>454.9619334766929</v>
+        <v>454.9619334766925</v>
       </c>
       <c r="M5" t="n">
-        <v>506.2328127724559</v>
+        <v>506.2328127724555</v>
       </c>
       <c r="N5" t="n">
-        <v>514.4241889332257</v>
+        <v>514.4241889332252</v>
       </c>
       <c r="O5" t="n">
-        <v>485.7561742570609</v>
+        <v>485.7561742570605</v>
       </c>
       <c r="P5" t="n">
-        <v>414.5816563621202</v>
+        <v>414.5816563621198</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.3335582512315</v>
+        <v>311.3335582512312</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1004074822509</v>
+        <v>181.1004074822508</v>
       </c>
       <c r="S5" t="n">
-        <v>65.69678284682377</v>
+        <v>65.69678284682371</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62041324901682</v>
+        <v>12.62041324901681</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306414757101874</v>
+        <v>0.2306414757101872</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542550860248029</v>
+        <v>1.542550860248028</v>
       </c>
       <c r="H6" t="n">
-        <v>14.89779383450071</v>
+        <v>14.8977938345007</v>
       </c>
       <c r="I6" t="n">
-        <v>53.10975549538172</v>
+        <v>53.10975549538168</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7372284236965</v>
+        <v>145.7372284236964</v>
       </c>
       <c r="K6" t="n">
-        <v>249.0881360603145</v>
+        <v>249.0881360603143</v>
       </c>
       <c r="L6" t="n">
-        <v>334.9297383183276</v>
+        <v>334.9297383183274</v>
       </c>
       <c r="M6" t="n">
-        <v>390.8472070023186</v>
+        <v>390.8472070023183</v>
       </c>
       <c r="N6" t="n">
-        <v>401.1917695695083</v>
+        <v>401.191769569508</v>
       </c>
       <c r="O6" t="n">
-        <v>367.0120899819073</v>
+        <v>367.0120899819069</v>
       </c>
       <c r="P6" t="n">
-        <v>294.5595585678891</v>
+        <v>294.5595585678888</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9052641958713</v>
+        <v>196.9052641958711</v>
       </c>
       <c r="R6" t="n">
-        <v>95.77346481434698</v>
+        <v>95.77346481434691</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65220567171228</v>
+        <v>28.65220567171226</v>
       </c>
       <c r="T6" t="n">
-        <v>6.217562458631309</v>
+        <v>6.217562458631305</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014836092268441</v>
+        <v>0.101483609226844</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293222823590165</v>
+        <v>1.293222823590164</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49792655882893</v>
+        <v>11.49792655882892</v>
       </c>
       <c r="I7" t="n">
-        <v>38.89073727669335</v>
+        <v>38.89073727669332</v>
       </c>
       <c r="J7" t="n">
-        <v>91.43085362782469</v>
+        <v>91.43085362782462</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2489789589301</v>
+        <v>150.24897895893</v>
       </c>
       <c r="L7" t="n">
-        <v>192.266964154487</v>
+        <v>192.2669641544868</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7185558833202</v>
+        <v>202.71855588332</v>
       </c>
       <c r="N7" t="n">
-        <v>197.8983617226661</v>
+        <v>197.8983617226659</v>
       </c>
       <c r="O7" t="n">
-        <v>182.7911678289082</v>
+        <v>182.791167828908</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4094222276687</v>
+        <v>156.4094222276686</v>
       </c>
       <c r="Q7" t="n">
         <v>108.289776618991</v>
       </c>
       <c r="R7" t="n">
-        <v>58.14800077706324</v>
+        <v>58.1480007770632</v>
       </c>
       <c r="S7" t="n">
-        <v>22.53734684383951</v>
+        <v>22.53734684383949</v>
       </c>
       <c r="T7" t="n">
-        <v>5.525588428067069</v>
+        <v>5.525588428067064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07053942674128183</v>
+        <v>0.07053942674128177</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718658</v>
+        <v>4.952877700718814</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248497</v>
+        <v>50.72365875248656</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569563</v>
+        <v>190.9458175569623</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513706</v>
+        <v>420.3693037513838</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227915</v>
+        <v>630.0246168228113</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561603</v>
+        <v>781.6012477561849</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663157</v>
+        <v>869.681986566343</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334826</v>
+        <v>883.7543503335104</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969615</v>
+        <v>834.5041726969877</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604694</v>
+        <v>712.2300044604918</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034824</v>
+        <v>534.8550718034992</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677687</v>
+        <v>311.1212038677784</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051265</v>
+        <v>112.8637006051301</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489594</v>
+        <v>21.68122213489662</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574926</v>
+        <v>0.396230216057505</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191122</v>
+        <v>2.650023196191205</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900373</v>
+        <v>25.59364507900454</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851013</v>
+        <v>91.23983372851299</v>
       </c>
       <c r="J12" t="n">
-        <v>250.3690774962849</v>
+        <v>250.3690774962928</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9206316410901</v>
+        <v>427.9206316411035</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273749</v>
+        <v>575.392097927393</v>
       </c>
       <c r="M12" t="n">
-        <v>671.455438789303</v>
+        <v>671.455438789324</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760409</v>
+        <v>689.2268662760625</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5079312446481</v>
+        <v>630.5079312446679</v>
       </c>
       <c r="P12" t="n">
-        <v>210.8877491630295</v>
+        <v>210.887749162922</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837454</v>
+        <v>49.22301857837608</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605105</v>
+        <v>10.68145314605139</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283634</v>
+        <v>0.1743436313283688</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22169042763794</v>
+        <v>2.22169042763801</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027189</v>
+        <v>19.7528476202725</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478463</v>
+        <v>66.81229031478672</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340024</v>
+        <v>157.0735132340073</v>
       </c>
       <c r="K13" t="n">
-        <v>258.120033320117</v>
+        <v>258.1200333201251</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326444</v>
+        <v>330.3047750326548</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731251</v>
+        <v>348.260073125111</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857226</v>
+        <v>339.9792269857332</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537701</v>
+        <v>314.02584335378</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299559</v>
+        <v>268.7033586299643</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361188</v>
+        <v>186.0362775361247</v>
       </c>
       <c r="R13" t="n">
-        <v>99.8952805008841</v>
+        <v>99.89528050088724</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801755</v>
+        <v>38.71800499801876</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725744</v>
+        <v>9.492677281726042</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347969</v>
+        <v>0.1211831142348007</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377371</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122226</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704038</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874018</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083036</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364177</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293212</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.145364522951</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086859</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687444</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148547</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987128</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854245</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665695</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901896</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540876</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088162</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173579</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848177</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.243604874566</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504226</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927561</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169392</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862105</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821081</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013735</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291818</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548545</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284851</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273315</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900857</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640581</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574264983</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416836</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465927</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282394</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561722</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860848</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851285</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551958</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.133577808070463</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377372</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122227</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704038</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874019</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830361</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364178</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293213</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229511</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086861</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687446</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148548</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987129</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854245</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665696</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901896</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540876</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088162</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173579</v>
       </c>
       <c r="K18" t="n">
-        <v>348.1857632660259</v>
+        <v>471.6886536848177</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745661</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504227</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927562</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169387</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862106</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821081</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013735</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291819</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548546</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284853</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273316</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900858</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640582</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574264983</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416837</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465928</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282395</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561722</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860848</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851285</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551958</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.133577808070463</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377372</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122227</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704038</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874019</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830361</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364178</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293213</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229511</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086861</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687446</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148548</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987129</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854245</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665696</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901896</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540876</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088162</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173579</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848177</v>
       </c>
       <c r="L21" t="n">
-        <v>420.7661933823243</v>
+        <v>634.2436048745661</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504227</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927562</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169387</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862106</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821081</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013735</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291819</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548546</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284853</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273316</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900858</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640582</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574264983</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416837</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465928</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282395</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561722</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860848</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851285</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551958</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.133577808070463</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572289</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.64668233653293</v>
+        <v>63.64668233653273</v>
       </c>
       <c r="K5" t="n">
-        <v>146.6409066533917</v>
+        <v>146.6409066533914</v>
       </c>
       <c r="L5" t="n">
-        <v>219.1955185067056</v>
+        <v>219.1955185067053</v>
       </c>
       <c r="M5" t="n">
-        <v>275.8865795451832</v>
+        <v>275.8865795451828</v>
       </c>
       <c r="N5" t="n">
-        <v>285.0111253366347</v>
+        <v>285.0111253366343</v>
       </c>
       <c r="O5" t="n">
-        <v>255.6579628353741</v>
+        <v>255.6579628353738</v>
       </c>
       <c r="P5" t="n">
-        <v>183.3486606068506</v>
+        <v>183.3486606068503</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.02786837678198</v>
+        <v>89.02786837678175</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.22824346985023</v>
+        <v>18.8996017570297</v>
       </c>
       <c r="K6" t="n">
-        <v>111.2466970859555</v>
+        <v>111.2466970859553</v>
       </c>
       <c r="L6" t="n">
-        <v>196.3753585384534</v>
+        <v>196.3753585384532</v>
       </c>
       <c r="M6" t="n">
-        <v>248.7131730803003</v>
+        <v>383.477334478438</v>
       </c>
       <c r="N6" t="n">
-        <v>269.850057486175</v>
+        <v>366.4918255367046</v>
       </c>
       <c r="O6" t="n">
-        <v>224.4158455374628</v>
+        <v>224.4158455374625</v>
       </c>
       <c r="P6" t="n">
-        <v>160.5851511535589</v>
+        <v>160.5851511535586</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0007778456988</v>
+        <v>56.92349010984961</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.9794871330472</v>
+        <v>127.9794871330471</v>
       </c>
       <c r="L7" t="n">
-        <v>219.8569894148031</v>
+        <v>219.856989414803</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3024328451608</v>
+        <v>242.3024328451606</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0305341018947</v>
+        <v>242.0305341018945</v>
       </c>
       <c r="O7" t="n">
-        <v>207.3762957429478</v>
+        <v>207.3762957429477</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6879814925622</v>
+        <v>153.687981492562</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.12773336729666</v>
+        <v>22.12773336729657</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35258,16 +35258,16 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246843</v>
+        <v>239.3233992246975</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778109</v>
+        <v>409.9347657778307</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861731</v>
+        <v>545.8348327861977</v>
       </c>
       <c r="M11" t="n">
-        <v>639.335753339043</v>
+        <v>639.3357533390703</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368918</v>
+        <v>654.3412867369195</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752748</v>
+        <v>604.4059612753009</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051999</v>
+        <v>480.9970087052223</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290328</v>
+        <v>312.5493819290497</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363659</v>
+        <v>95.53566605364631</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>123.5314508296183</v>
+        <v>123.5314508296261</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0791926667311</v>
+        <v>290.0791926667445</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181475008</v>
+        <v>436.8377181475188</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3214048672846</v>
+        <v>529.3214048673058</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927077</v>
+        <v>557.8851541927293</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002037</v>
+        <v>487.9116868002235</v>
       </c>
       <c r="P12" t="n">
-        <v>76.91334174869921</v>
+        <v>76.91334174859172</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.7143331173296</v>
+        <v>63.71433311733455</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942342</v>
+        <v>235.8505414942423</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929606</v>
+        <v>357.8948002929709</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869406</v>
+        <v>387.8439500869516</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649511</v>
+        <v>384.1113993649618</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678098</v>
+        <v>338.6109712678197</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948494</v>
+        <v>265.9819178948578</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442445</v>
+        <v>99.87423428443027</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607155</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380554</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664304</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020485</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.73230092636</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327869992</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134748</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404052</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845807</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069123</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104587</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946918</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284042</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094229</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724948</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211065876</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642029</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243743</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883389</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209122</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606324</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931329</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044778</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607156</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380555</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664306</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020486</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263603</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327869993</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134751</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404053</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845807</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069123</v>
       </c>
       <c r="K18" t="n">
-        <v>210.3443242916669</v>
+        <v>333.8472147104587</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946919</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284044</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>628.379761009423</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724943</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211065879</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642029</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243744</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883389</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209123</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606324</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931329</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044778</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607156</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380555</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664306</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020486</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263603</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327869993</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134751</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404053</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845807</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069123</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104587</v>
       </c>
       <c r="L21" t="n">
-        <v>282.2118136024501</v>
+        <v>495.6892250946919</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284044</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.379761009423</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724943</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211065879</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642029</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243744</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883389</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209123</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606324</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931329</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044778</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
